--- a/Document Library/Bill Of Materials/Scaling Calculator.xlsx
+++ b/Document Library/Bill Of Materials/Scaling Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{3C991C9A-D752-4FFD-ABFB-BD2FE239CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{742008D0-2B4C-4470-98D0-2031A43E5850}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{3C991C9A-D752-4FFD-ABFB-BD2FE239CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5094D595-33C6-4F24-92B2-9700A4745B10}"/>
   <bookViews>
-    <workbookView xWindow="39840" yWindow="675" windowWidth="7905" windowHeight="6960" xr2:uid="{2D694AAA-0C1E-4151-AF43-6F13381B3E44}"/>
+    <workbookView xWindow="39840" yWindow="675" windowWidth="12090" windowHeight="8850" xr2:uid="{2D694AAA-0C1E-4151-AF43-6F13381B3E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Print Size</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Frame profiles length</t>
+  </si>
+  <si>
+    <t>Add your print volume</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +102,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -229,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -252,6 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,11 +577,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D19E0BF-36B9-4C0E-BE27-0BCBED7C57C5}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -578,7 +587,7 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -595,22 +604,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="22">
         <v>400</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22">
         <v>400</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="22">
         <v>600</v>
       </c>
       <c r="E2" s="13"/>
+      <c r="F2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -628,7 +642,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -649,7 +663,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -658,7 +672,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2040</v>
       </c>
@@ -673,7 +687,7 @@
       </c>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>2020</v>
       </c>

--- a/Document Library/Bill Of Materials/Scaling Calculator.xlsx
+++ b/Document Library/Bill Of Materials/Scaling Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{3C991C9A-D752-4FFD-ABFB-BD2FE239CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5094D595-33C6-4F24-92B2-9700A4745B10}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{3C991C9A-D752-4FFD-ABFB-BD2FE239CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D2F9B2-BA26-47D9-BE20-BA078240853D}"/>
   <bookViews>
     <workbookView xWindow="39840" yWindow="675" windowWidth="12090" windowHeight="8850" xr2:uid="{2D694AAA-0C1E-4151-AF43-6F13381B3E44}"/>
   </bookViews>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="22">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C2" s="22">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D2" s="22">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="23" t="s">
@@ -630,16 +630,13 @@
       </c>
       <c r="B3" s="10">
         <f>B2+50</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:D3" si="0">C2+50</f>
-        <v>450</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -648,19 +645,19 @@
       </c>
       <c r="B4" s="1">
         <f>B2+120</f>
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="C4" s="2">
         <f>C2+180</f>
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="D4" s="3">
         <f>D2+450</f>
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="E4" s="15">
         <f>D2+69</f>
-        <v>669</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/Document Library/Bill Of Materials/Scaling Calculator.xlsx
+++ b/Document Library/Bill Of Materials/Scaling Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{3C991C9A-D752-4FFD-ABFB-BD2FE239CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D2F9B2-BA26-47D9-BE20-BA078240853D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{3C991C9A-D752-4FFD-ABFB-BD2FE239CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FCAA90-A3B3-43D5-9D9A-8DF316D7BE1F}"/>
   <bookViews>
-    <workbookView xWindow="39840" yWindow="675" windowWidth="12090" windowHeight="8850" xr2:uid="{2D694AAA-0C1E-4151-AF43-6F13381B3E44}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2D694AAA-0C1E-4151-AF43-6F13381B3E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,19 +249,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -608,21 +605,21 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22">
-        <v>200</v>
-      </c>
-      <c r="C2" s="22">
-        <v>200</v>
-      </c>
-      <c r="D2" s="22">
-        <v>200</v>
+      <c r="B2" s="20">
+        <v>300</v>
+      </c>
+      <c r="C2" s="20">
+        <v>300</v>
+      </c>
+      <c r="D2" s="20">
+        <v>300</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -630,11 +627,11 @@
       </c>
       <c r="B3" s="10">
         <f>B2+50</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:D3" si="0">C2+50</f>
-        <v>250</v>
+        <f t="shared" ref="C3" si="0">C2+50</f>
+        <v>350</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
@@ -645,55 +642,52 @@
       </c>
       <c r="B4" s="1">
         <f>B2+120</f>
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="C4" s="2">
         <f>C2+180</f>
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="D4" s="3">
         <f>D2+450</f>
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E4" s="15">
         <f>D2+69</f>
-        <v>269</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2040</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>2020</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
         <v>1</v>
       </c>
     </row>
